--- a/backend/tests/fixtures/categories-import-sample.xlsx
+++ b/backend/tests/fixtures/categories-import-sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,40 +434,45 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>slug</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>parent_slug</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>name_tr</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>name_de</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>name_fr</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>is_active</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>sort_order</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>wizard_progress</t>
         </is>
@@ -486,36 +491,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>otomobil</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Otomobil</t>
-        </is>
-      </c>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ornek-vehicle</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Örnek Ana Kategori</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Voiture</t>
+          <t>Beispiel Hauptkategorie</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Categorie Exemple</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>true</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>{"step": "core"}</t>
         </is>
@@ -534,40 +544,45 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>suv</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>otomobil</t>
+          <t>ornek-vehicle-alt</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>ornek-vehicle</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Örnek Alt Kategori</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Beispiel Unterkategorie</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>Sous-categorie Exemple</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>true</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
